--- a/auds без гос.экзамена.xlsx
+++ b/auds без гос.экзамена.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24240" windowHeight="12885"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="24240" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="237">
   <si>
     <t>В-02</t>
   </si>
@@ -672,11 +672,6 @@
 Управление качеством в производственно-технологических системах</t>
   </si>
   <si>
-    <t xml:space="preserve">10.00: 11.04.01
-Радиотехника/ Радиотехнические телекоммуникационные устройства и системы
-</t>
-  </si>
-  <si>
     <t>09.00: 09.03.02 
 Информационные системы и технологии/
 Информационные системы и технологии в административном управлении; 
@@ -783,10 +778,6 @@
     <t>24.06.2020</t>
   </si>
   <si>
-    <t>10.00: 11.03.02
-Инфокоммуникационные технологии и системы связи/ Многоканальные телекоммуникационные системы</t>
-  </si>
-  <si>
     <t>10.00: 23.05.01
 Наземные транспортно-технологические средства/ 
 Подъемно-транспортные, строительные, дорожные
@@ -905,12 +896,6 @@
 Эксплуатация транспортно-технологических машин и комплексов/ Техническая эксплуатация автомобилей</t>
   </si>
   <si>
-    <t>09.00: 13.04.02
-Электроэнергетика 
-и электротехника/
-Возобновляемая энергетика</t>
-  </si>
-  <si>
     <t>26.06.2020</t>
   </si>
   <si>
@@ -933,12 +918,6 @@
 «Поиски и разведка
 подземных вод и 
 инженерно-геологические изыскания»</t>
-  </si>
-  <si>
-    <t>12.00: 13.04.02
-Электроэнергетика 
-и электротехника/
-Возобновляемая энергетика</t>
   </si>
   <si>
     <t>27.06.2020</t>
@@ -1020,34 +999,6 @@
 Автоматизация процессов и производств непрерывного типа; 
 Автоматизация процессов и производств непрерывного типа (прикладной бакалавриат)
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.00: 05.06.01
-Науки о Земле/
-Геоэкология (в нефтегазовой отрасли, в горноперерабатывающей промышленности,
-в металлургии) 
-15.00: 13.04.02
-Электроэнергетика 
-и электротехника/
-Энергоэффективность, 
-энергоаудит и управление энергохозяйством
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.00: 42.03.02
-Журналистика/
-Журналистика </t>
-  </si>
-  <si>
-    <t>10.00: 13.06.01
-Электро- и теплотехника/
-Электротехнические
-комплексы и системы 
-14.00: 13.03.02
-Электроэнергетика
-и электротехника/
-Электроснабжение
-III ГЭК</t>
   </si>
   <si>
     <t xml:space="preserve">09.00: 38.03.02
@@ -1078,13 +1029,6 @@
 Экспертиза и управление 
 недвижимостью
 </t>
-  </si>
-  <si>
-    <t>15.00: 13.04.02
-Электроэнергетика 
-и электротехника/
-Энергоэффективность, 
-энергоаудит и управление энергохозяйством</t>
   </si>
   <si>
     <t>14.00: 13.04.02
@@ -1140,19 +1084,6 @@
     </r>
   </si>
   <si>
-    <t>14.00: 13.04.02
-Электроэнергетика 
-и электротехника/
-Управление электроэнергетическими системами</t>
-  </si>
-  <si>
-    <t xml:space="preserve">09.00: 13.04.02
-Электроэнергетика 
-и электротехника/
-Возобновляемая энергетика
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">10.00: 13.04.02
 Электроэнергетика 
 и электротехника/
@@ -1164,12 +1095,179 @@
 Электро- и теплотехника/
 Энергетические системы и комплексы</t>
   </si>
+  <si>
+    <t>09.00: 13.03.02
+Электроэнергетика
+и электротехника/
+Электрические станции 
+I ГЭК</t>
+  </si>
+  <si>
+    <t>15.00: 13.03.02
+Электроэнергетика
+и электротехника/
+Электроснабжение
+II ГЭК</t>
+  </si>
+  <si>
+    <t>12.00: 13.04.02
+Электроэнергетика 
+и электротехника/
+Энергоэффективность, 
+энергоаудит и управление энергохозяйством</t>
+  </si>
+  <si>
+    <t>13.00: 13.04.02
+Электроэнергетика 
+и электротехника/
+Интеллектуальные системы 
+электроснабжения</t>
+  </si>
+  <si>
+    <t>12.00: 13.04.02
+Электроэнергетика 
+и электротехника/
+Интеллектуальные системы 
+электроснабжения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>14.00: 13.04.02
+Электроэнергетика 
+и электротехника/
+Возобновляемая энергетика</t>
+  </si>
+  <si>
+    <t>10.00: 11.04.01
+Радиотехника/ Радиотехнические телекоммуникационные устройства и системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09.00: 19.03.02
+Продукты питания из растительного сырья/ Технология переработки пищевого растительного сырья </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>09.00: 09.03.01
+Информатика и вычислительная техника/
+Вычислительные машины, комплексы, системы и сети</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.00: 05.06.01
+Науки о Земле/
+Геоэкология (в нефтегазовой отрасли, в горноперерабатывающей промышленности,
+в металлургии) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.00: 13.06.01
+Электро- и теплотехника/
+Электротехнические
+комплексы и системы </t>
+  </si>
+  <si>
+    <t>14.00: 39.03.02
+Социальная работа/
+Социальная работа на предприятиях и фирмах разных видов деятельности, организационно-правовых форм и форм собственности</t>
+  </si>
+  <si>
+    <t>10.00: 40.03.01
+Юриспруденция/ 
+Гражданско-правовой
+(заочная форма
+обучения)</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10.00: 11.03.02
+Инфокоммуникационные технологии и системы связи/ Многоканальные телекоммуникационные системы </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10.00: 11.04.01
+Радиотехника/ Радиотехнические телекоммуникационные устройства и системы </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">
+10.00: 11.03.02
+Инфокоммуникационные технологии и системы связи/ Многоканальные телекоммуникационные системы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00: 19.03.02
+Продукты питания из расти-тельного сырья/ Технология переработки пищевого расти-тельного сырья
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10.00: 40.03.01
+Юриспруденция/ 
+Уголовно-правовой
+(заочная форма
+обучения)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00: 09.03.02
+ Информационные систе-мы и технологии/ Информационные системы и технологии на предприя-тиях / в машиностроении
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">09:00: 42.03.02
+Журналистика/
+Журналистика
+</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1177,13 +1275,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1225,15 +1358,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1538,141 +1684,142 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO26"/>
+  <dimension ref="A1:AO27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="67" zoomScaleNormal="67" workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AF14" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomRight" activeCell="AU19" sqref="AU19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="41" width="30.7109375" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.85546875" style="1" customWidth="1"/>
+    <col min="3" max="41" width="30.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="A1" s="1"/>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1884,7 +2031,9 @@
         <v>67</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -2127,7 +2276,7 @@
       <c r="AN10" s="2"/>
       <c r="AO10" s="2"/>
     </row>
-    <row r="11" spans="1:41" ht="120" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:41" ht="150" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>76</v>
       </c>
@@ -2168,7 +2317,9 @@
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
       <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
+      <c r="Y11" s="2" t="s">
+        <v>104</v>
+      </c>
       <c r="Z11" s="3" t="s">
         <v>84</v>
       </c>
@@ -2213,7 +2364,7 @@
         <v>92</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>93</v>
@@ -2332,7 +2483,7 @@
         <v>98</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>54</v>
+        <v>226</v>
       </c>
       <c r="K13" s="3" t="s">
         <v>95</v>
@@ -2359,7 +2510,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="X13" s="3" t="s">
         <v>109</v>
@@ -2400,7 +2551,9 @@
       <c r="AJ13" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="AK13" s="2"/>
+      <c r="AK13" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="AL13" s="3" t="s">
         <v>88</v>
       </c>
@@ -2480,7 +2633,7 @@
         <v>81</v>
       </c>
       <c r="AC14" s="3" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="AD14" s="3" t="s">
         <v>64</v>
@@ -2503,7 +2656,9 @@
       <c r="AJ14" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="AK14" s="2"/>
+      <c r="AK14" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="AL14" s="3" t="s">
         <v>121</v>
       </c>
@@ -2604,7 +2759,9 @@
       <c r="AL15" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="AM15" s="2"/>
+      <c r="AM15" s="3" t="s">
+        <v>147</v>
+      </c>
       <c r="AN15" s="3" t="s">
         <v>131</v>
       </c>
@@ -2616,12 +2773,14 @@
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
+      <c r="D16" s="2" t="s">
+        <v>236</v>
+      </c>
       <c r="E16" s="3" t="s">
         <v>133</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>134</v>
@@ -2646,7 +2805,9 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-      <c r="X16" s="2"/>
+      <c r="X16" s="2" t="s">
+        <v>129</v>
+      </c>
       <c r="Y16" s="2"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
@@ -2699,7 +2860,7 @@
         <v>137</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>128</v>
@@ -2717,8 +2878,8 @@
         <v>129</v>
       </c>
       <c r="Q17" s="2"/>
-      <c r="R17" s="3" t="s">
-        <v>139</v>
+      <c r="R17" s="7" t="s">
+        <v>230</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
@@ -2726,26 +2887,28 @@
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
       <c r="X17" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y17" s="3"/>
+        <v>208</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="Z17" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AA17" s="3" t="s">
         <v>104</v>
       </c>
       <c r="AB17" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC17" s="3" t="s">
         <v>72</v>
       </c>
       <c r="AD17" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE17" s="3" t="s">
         <v>142</v>
-      </c>
-      <c r="AE17" s="3" t="s">
-        <v>143</v>
       </c>
       <c r="AF17" s="3" t="s">
         <v>92</v>
@@ -2757,10 +2920,10 @@
         <v>48</v>
       </c>
       <c r="AI17" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="AJ17" s="3" t="s">
         <v>144</v>
-      </c>
-      <c r="AJ17" s="3" t="s">
-        <v>145</v>
       </c>
       <c r="AK17" s="2"/>
       <c r="AL17" s="3" t="s">
@@ -2768,34 +2931,34 @@
       </c>
       <c r="AM17" s="2"/>
       <c r="AN17" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AO17" s="2"/>
     </row>
     <row r="18" spans="1:41" ht="180" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>147</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>204</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>148</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>119</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G18" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="3" t="s">
         <v>149</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>150</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>99</v>
@@ -2804,60 +2967,60 @@
         <v>138</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="L18" s="3" t="s">
         <v>128</v>
       </c>
       <c r="M18" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>125</v>
       </c>
       <c r="O18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="P18" s="3" t="s">
         <v>152</v>
-      </c>
-      <c r="P18" s="3" t="s">
-        <v>153</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="S18" s="2" t="s">
-        <v>213</v>
+        <v>141</v>
       </c>
       <c r="T18" s="2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="U18" s="3" t="s">
         <v>116</v>
       </c>
       <c r="V18" s="2"/>
       <c r="W18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="X18" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="Y18" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="X18" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="Y18" s="3" t="s">
+      <c r="Z18" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="Z18" s="3" t="s">
+      <c r="AA18" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="AA18" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="AB18" s="3" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="AC18" s="3" t="s">
         <v>137</v>
       </c>
       <c r="AD18" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE18" s="3" t="s">
         <v>72</v>
@@ -2866,16 +3029,16 @@
         <v>82</v>
       </c>
       <c r="AG18" s="3" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="AH18" s="3" t="s">
         <v>51</v>
       </c>
       <c r="AI18" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="AJ18" s="3" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="AK18" s="3" t="s">
         <v>120</v>
@@ -2884,212 +3047,142 @@
         <v>131</v>
       </c>
       <c r="AM18" s="2" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="AN18" s="3" t="s">
         <v>48</v>
       </c>
       <c r="AO18" s="2"/>
     </row>
-    <row r="19" spans="1:41" ht="225" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:41" ht="60" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>51</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>207</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>160</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="F19" s="3"/>
+      <c r="G19" s="4"/>
       <c r="H19" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="L19" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="N19" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="O19" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>163</v>
-      </c>
+        <v>219</v>
+      </c>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
       <c r="Q19" s="2"/>
-      <c r="R19" s="3" t="s">
-        <v>131</v>
-      </c>
+      <c r="R19" s="3"/>
       <c r="S19" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="V19" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>93</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="3"/>
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+      <c r="Z19" s="3"/>
       <c r="AA19" s="3" t="s">
-        <v>206</v>
-      </c>
-      <c r="AB19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="AC19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AD19" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="AE19" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="AF19" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="AG19" s="3" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH19" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="AI19" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ19" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="AK19" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="AL19" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="AM19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="AN19" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="AO19" s="3" t="s">
-        <v>170</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+      <c r="AD19" s="3"/>
+      <c r="AE19" s="3"/>
+      <c r="AF19" s="3"/>
+      <c r="AG19" s="3"/>
+      <c r="AH19" s="3"/>
+      <c r="AI19" s="3"/>
+      <c r="AJ19" s="3"/>
+      <c r="AK19" s="3"/>
+      <c r="AL19" s="3"/>
+      <c r="AM19" s="3"/>
+      <c r="AN19" s="3"/>
+      <c r="AO19" s="3"/>
     </row>
     <row r="20" spans="1:41" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="G20" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="H20" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I20" s="3" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="J20" s="3" t="s">
         <v>58</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="L20" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="M20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="P20" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>186</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="N20" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>217</v>
-      </c>
-      <c r="P20" s="3" t="s">
-        <v>178</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="T20" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>160</v>
+        <v>210</v>
+      </c>
+      <c r="U20" s="4" t="s">
+        <v>231</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="W20" s="3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="X20" s="3" t="s">
         <v>56</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="AA20" s="3" t="s">
         <v>101</v>
@@ -3098,7 +3191,7 @@
         <v>59</v>
       </c>
       <c r="AC20" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="AD20" s="3" t="s">
         <v>47</v>
@@ -3107,160 +3200,168 @@
         <v>55</v>
       </c>
       <c r="AF20" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AG20" s="3" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="AH20" s="3" t="s">
         <v>87</v>
       </c>
       <c r="AI20" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="AJ20" s="3" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="AK20" s="3" t="s">
         <v>129</v>
       </c>
       <c r="AL20" s="3" t="s">
-        <v>183</v>
+        <v>220</v>
       </c>
       <c r="AM20" s="3" t="s">
         <v>137</v>
       </c>
       <c r="AN20" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="AO20" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21" spans="1:41" ht="120" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="E21" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>96</v>
+      </c>
       <c r="F21" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="I21" s="3" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="L21" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="N21" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>154</v>
-      </c>
       <c r="P21" s="3" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
       <c r="U21" s="2"/>
-      <c r="V21" s="2"/>
+      <c r="V21" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="W21" s="2"/>
       <c r="X21" s="3" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="AA21" s="3" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="AB21" s="3" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="AC21" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="AD21" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="AD21" s="3" t="s">
-        <v>175</v>
-      </c>
       <c r="AE21" s="3" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="AF21" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AG21" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="AG21" s="3"/>
       <c r="AH21" s="3" t="s">
         <v>109</v>
       </c>
       <c r="AI21" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AJ21" s="3" t="s">
-        <v>142</v>
-      </c>
+      <c r="AJ21" s="3"/>
       <c r="AK21" s="2"/>
       <c r="AL21" s="3" t="s">
-        <v>189</v>
+        <v>220</v>
       </c>
       <c r="AM21" s="2"/>
       <c r="AN21" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="AO21" s="2"/>
     </row>
-    <row r="22" spans="1:41" ht="90" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:41" ht="105" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
+      <c r="C22" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="3" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
+      <c r="J22" s="3" t="s">
+        <v>202</v>
+      </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="N22" s="2"/>
+      <c r="N22" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2"/>
@@ -3269,7 +3370,9 @@
       <c r="T22" s="2"/>
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
-      <c r="W22" s="2"/>
+      <c r="W22" s="3" t="s">
+        <v>228</v>
+      </c>
       <c r="X22" s="2"/>
       <c r="Y22" s="2"/>
       <c r="Z22" s="2"/>
@@ -3282,10 +3385,14 @@
       <c r="AG22" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="AH22" s="2"/>
+      <c r="AH22" s="2" t="s">
+        <v>143</v>
+      </c>
       <c r="AI22" s="2"/>
       <c r="AJ22" s="2"/>
-      <c r="AK22" s="2"/>
+      <c r="AK22" s="3" t="s">
+        <v>165</v>
+      </c>
       <c r="AL22" s="2"/>
       <c r="AM22" s="2"/>
       <c r="AN22" s="2"/>
@@ -3293,68 +3400,96 @@
     </row>
     <row r="23" spans="1:41" ht="135" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
+        <v>187</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>156</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="3" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="I23" s="2"/>
+        <v>159</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>150</v>
+      </c>
       <c r="J23" s="2"/>
       <c r="K23" s="3" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="L23" s="3" t="s">
         <v>56</v>
       </c>
       <c r="M23" s="3"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
+      <c r="O23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="P23" s="3" t="s">
+        <v>161</v>
+      </c>
       <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="S23" s="2"/>
-      <c r="T23" s="2"/>
-      <c r="U23" s="2"/>
+      <c r="R23" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="U23" s="2" t="s">
+        <v>216</v>
+      </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
+      <c r="X23" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>164</v>
+      </c>
       <c r="Z23" s="3" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="AA23" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="AB23" s="2"/>
+        <v>182</v>
+      </c>
+      <c r="AB23" s="3" t="s">
+        <v>144</v>
+      </c>
       <c r="AC23" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="AD23" s="3" t="s">
         <v>94</v>
       </c>
       <c r="AE23" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="AF23" s="2"/>
+        <v>190</v>
+      </c>
+      <c r="AF23" s="2" t="s">
+        <v>220</v>
+      </c>
       <c r="AG23" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="AH23" s="2"/>
+      <c r="AH23" s="2" t="s">
+        <v>111</v>
+      </c>
       <c r="AI23" s="2"/>
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
       <c r="AL23" s="3" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="AM23" s="2"/>
       <c r="AN23" s="2"/>
@@ -3362,23 +3497,27 @@
     </row>
     <row r="24" spans="1:41" ht="135" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
+      <c r="D24" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="E24" s="3" t="s">
-        <v>188</v>
-      </c>
-      <c r="F24" s="2"/>
+        <v>185</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>218</v>
+      </c>
       <c r="G24" s="3" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="3" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="3"/>
@@ -3406,9 +3545,11 @@
         <v>48</v>
       </c>
       <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
+      <c r="AF24" s="3" t="s">
+        <v>198</v>
+      </c>
       <c r="AG24" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="AH24" s="2"/>
       <c r="AI24" s="2"/>
@@ -3417,13 +3558,15 @@
       <c r="AL24" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AM24" s="2"/>
+      <c r="AM24" s="3" t="s">
+        <v>166</v>
+      </c>
       <c r="AN24" s="2"/>
       <c r="AO24" s="2"/>
     </row>
-    <row r="25" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -3431,9 +3574,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
       <c r="G25" s="3"/>
-      <c r="H25" s="3" t="s">
-        <v>197</v>
-      </c>
+      <c r="H25" s="3"/>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -3458,9 +3599,7 @@
       <c r="AD25" s="2"/>
       <c r="AE25" s="2"/>
       <c r="AF25" s="2"/>
-      <c r="AG25" s="3" t="s">
-        <v>198</v>
-      </c>
+      <c r="AG25" s="3"/>
       <c r="AH25" s="2"/>
       <c r="AI25" s="2"/>
       <c r="AJ25" s="2"/>
@@ -3470,17 +3609,19 @@
       <c r="AN25" s="2"/>
       <c r="AO25" s="2"/>
     </row>
-    <row r="26" spans="1:41" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:41" ht="120" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
+      <c r="D26" s="3" t="s">
+        <v>229</v>
+      </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="3" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="H26" s="3"/>
       <c r="I26" s="2"/>
@@ -3488,7 +3629,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
       <c r="M26" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3506,9 +3647,13 @@
       <c r="AA26" s="2"/>
       <c r="AB26" s="2"/>
       <c r="AC26" s="2"/>
-      <c r="AD26" s="2"/>
+      <c r="AD26" s="2" t="s">
+        <v>183</v>
+      </c>
       <c r="AE26" s="2"/>
-      <c r="AF26" s="2"/>
+      <c r="AF26" s="3" t="s">
+        <v>234</v>
+      </c>
       <c r="AG26" s="3"/>
       <c r="AH26" s="2"/>
       <c r="AI26" s="2"/>
@@ -3519,6 +3664,55 @@
       <c r="AN26" s="2"/>
       <c r="AO26" s="2"/>
     </row>
+    <row r="27" spans="1:41" ht="72" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="6">
+        <v>44015</v>
+      </c>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="2"/>
+      <c r="X27" s="2"/>
+      <c r="Y27" s="2"/>
+      <c r="Z27" s="2"/>
+      <c r="AA27" s="2"/>
+      <c r="AB27" s="2"/>
+      <c r="AC27" s="2"/>
+      <c r="AD27" s="2"/>
+      <c r="AE27" s="2"/>
+      <c r="AF27" s="2"/>
+      <c r="AG27" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH27" s="2"/>
+      <c r="AI27" s="2"/>
+      <c r="AJ27" s="2"/>
+      <c r="AK27" s="2"/>
+      <c r="AL27" s="2"/>
+      <c r="AM27" s="2"/>
+      <c r="AN27" s="2"/>
+      <c r="AO27" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
